--- a/TestData/Assignment_19.xlsx
+++ b/TestData/Assignment_19.xlsx
@@ -1126,12 +1126,12 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
